--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -1063,14 +1063,14 @@
     <t>H1:</t>
   </si>
   <si>
-    <t>Cоль поваренная - пищевая - каменная в мешках в Кропивницком</t>
+    <t>Cоль поваренная - пищевая - каменная в мешках со склада в Кропивницком</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,6 +1257,22 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1604,7 +1620,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1635,9 +1651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1652,6 +1665,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% – Акцентування1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1976,7 +1993,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2001,7 @@
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="35.140625" customWidth="1"/>
@@ -1992,26 +2009,29 @@
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2020,16 +2040,16 @@
       <c r="B4" s="8">
         <v>500</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>500</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2040,16 +2060,16 @@
       <c r="B5" s="10">
         <v>50</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21">
-        <v>50</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="20">
+        <v>50</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2066,10 +2086,10 @@
       <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2086,10 +2106,10 @@
       <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2100,10 +2120,10 @@
       <c r="B8" s="10">
         <v>50</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2120,10 +2140,10 @@
       <c r="B9" s="10">
         <v>50</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2140,16 +2160,16 @@
       <c r="B10" s="10">
         <v>50</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="21">
-        <v>50</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="E10" s="20">
+        <v>50</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2160,16 +2180,16 @@
       <c r="B11" s="10">
         <v>50</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="21">
-        <v>50</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="E11" s="20">
+        <v>50</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2180,16 +2200,16 @@
       <c r="B12" s="10">
         <v>50</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="21">
-        <v>50</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="E12" s="20">
+        <v>50</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2200,16 +2220,16 @@
       <c r="B13" s="10">
         <v>50</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="21">
-        <v>50</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="E13" s="20">
+        <v>50</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2226,10 +2246,10 @@
       <c r="E14" s="4">
         <v>50</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2240,16 +2260,16 @@
       <c r="B15" s="10">
         <v>50</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="4">
         <v>50</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2260,16 +2280,16 @@
       <c r="B16" s="10">
         <v>50</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="21">
-        <v>50</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="E16" s="20">
+        <v>50</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2280,16 +2300,16 @@
       <c r="B17" s="10">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="4">
-        <v>50</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="E17" s="10">
+        <v>50</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2300,16 +2320,16 @@
       <c r="B18" s="10">
         <v>50</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="21">
-        <v>50</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="E18" s="20">
+        <v>50</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2320,16 +2340,16 @@
       <c r="B19" s="10">
         <v>50</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="21">
-        <v>50</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="E19" s="20">
+        <v>50</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2346,10 +2366,10 @@
       <c r="E20" s="4">
         <v>50</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2366,10 +2386,10 @@
       <c r="E21" s="4">
         <v>50</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2380,16 +2400,16 @@
       <c r="B22" s="10">
         <v>50</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="21">
-        <v>50</v>
-      </c>
-      <c r="G22" s="20" t="s">
+      <c r="E22" s="20">
+        <v>50</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2400,16 +2420,16 @@
       <c r="B23" s="10">
         <v>50</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="21">
-        <v>50</v>
-      </c>
-      <c r="G23" s="20" t="s">
+      <c r="E23" s="20">
+        <v>50</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2420,10 +2440,10 @@
       <c r="B24" s="10">
         <v>50</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2440,10 +2460,10 @@
       <c r="B25" s="10">
         <v>50</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2460,10 +2480,10 @@
       <c r="B26" s="10">
         <v>50</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2480,10 +2500,10 @@
       <c r="B27" s="10">
         <v>50</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2500,10 +2520,10 @@
       <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2514,10 +2534,10 @@
       <c r="B29" s="10">
         <v>50</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2540,10 +2560,10 @@
       <c r="E30" s="4">
         <v>50</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2605,10 +2625,10 @@
       <c r="B34" s="10">
         <v>50</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2627,10 +2647,10 @@
       <c r="B36" s="10">
         <v>50</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2660,10 +2680,10 @@
       <c r="B39" s="10">
         <v>50</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <v>50</v>
       </c>
     </row>
@@ -2701,9 +2721,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Соль пищевая" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="349">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -166,9 +166,6 @@
     <t>поваренная соль цена</t>
   </si>
   <si>
-    <t>поваренная соль экстра</t>
-  </si>
-  <si>
     <t>розетка соль пищевая</t>
   </si>
   <si>
@@ -1064,13 +1061,22 @@
   </si>
   <si>
     <t>Cоль поваренная - пищевая - каменная в мешках со склада в Кропивницком</t>
+  </si>
+  <si>
+    <t>соль кухонная</t>
+  </si>
+  <si>
+    <t>поваренная соль экстра - поваренная -</t>
+  </si>
+  <si>
+    <t>соль экстра - выварочная - поваренная - пищевая - мелкая в мешках  со склада в Кропивницком</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,6 +1283,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1620,7 +1632,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1669,6 +1681,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% – Акцентування1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1990,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,33 +2023,42 @@
     <col min="7" max="7" width="35.140625" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2052,10 +2077,13 @@
       <c r="H4" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="10">
         <v>50</v>
@@ -2072,8 +2100,11 @@
       <c r="H5" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2092,8 +2123,11 @@
       <c r="H6" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -2112,8 +2146,11 @@
       <c r="H7" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -2132,8 +2169,11 @@
       <c r="H8" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -2152,8 +2192,11 @@
       <c r="H9" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -2172,8 +2215,11 @@
       <c r="H10" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -2192,8 +2238,11 @@
       <c r="H11" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -2212,8 +2261,11 @@
       <c r="H12" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2232,8 +2284,11 @@
       <c r="H13" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2252,8 +2307,11 @@
       <c r="H14" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
@@ -2261,7 +2319,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4">
         <v>50</v>
@@ -2272,8 +2330,11 @@
       <c r="H15" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -2281,7 +2342,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="20">
         <v>50</v>
@@ -2292,16 +2353,19 @@
       <c r="H16" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="10">
         <v>50</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="10">
         <v>50</v>
@@ -2312,16 +2376,19 @@
       <c r="H17" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="10">
         <v>50</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="20">
         <v>50</v>
@@ -2332,16 +2399,19 @@
       <c r="H18" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="10">
         <v>50</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="20">
         <v>50</v>
@@ -2352,16 +2422,19 @@
       <c r="H19" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="10">
         <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="4">
         <v>50</v>
@@ -2372,16 +2445,19 @@
       <c r="H20" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="10">
         <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="4">
         <v>50</v>
@@ -2392,16 +2468,19 @@
       <c r="H21" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="10">
         <v>50</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="20">
         <v>50</v>
@@ -2412,16 +2491,19 @@
       <c r="H22" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="10">
         <v>50</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="20">
         <v>50</v>
@@ -2432,16 +2514,19 @@
       <c r="H23" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="10">
         <v>50</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="20">
         <v>50</v>
@@ -2452,16 +2537,19 @@
       <c r="H24" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="10">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="20">
         <v>50</v>
@@ -2472,251 +2560,446 @@
       <c r="H25" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="10">
+        <v>50</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="20">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="4">
+        <v>50</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="10">
+        <v>50</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="20">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="10">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="4">
+        <v>50</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="20">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="10">
+        <v>50</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="20">
+        <v>50</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="4">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="10">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="4">
+        <v>50</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="20">
+        <v>50</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="10">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="4">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="4">
+        <v>50</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="10">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="4">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="10">
-        <v>50</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="20">
-        <v>50</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="10">
-        <v>50</v>
-      </c>
-      <c r="G27" s="19" t="s">
+      <c r="H32" s="4">
+        <v>50</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="10">
+        <v>50</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="4">
+        <v>50</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
+        <v>50</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="20">
+        <v>50</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="4">
+        <v>50</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>50</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="20">
+        <v>50</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="4">
+        <v>50</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="4">
+        <v>50</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>50</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="20">
+        <v>50</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="4">
+        <v>50</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="4">
+        <v>50</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="4">
+        <v>50</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="2">
+        <v>50</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="10">
-        <v>50</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="4">
-        <v>50</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="10">
-        <v>50</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="20">
-        <v>50</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="10">
-        <v>50</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4">
-        <v>50</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="10">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="4">
-        <v>50</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J69" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="10">
-        <v>50</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="4">
-        <v>50</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="10">
-        <v>50</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
-        <v>50</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
-        <v>50</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
-        <v>50</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
-        <v>50</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
-        <v>50</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
-        <v>50</v>
-      </c>
-      <c r="G39" s="19" t="s">
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="H39" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H42" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="2">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2730,312 +3013,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="4"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="4"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="J2" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="J3" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="4">
+        <v>500</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="12">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B5" s="12">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="4">
-        <v>500</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="E5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="12">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="12">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="12">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="4">
-        <v>50</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="12">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4">
-        <v>50</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="H7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="12">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="4">
-        <v>50</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B8" s="12">
+        <v>50</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="12">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="4">
-        <v>50</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="B9" s="12">
+        <v>50</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="H9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="12">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="4">
-        <v>50</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B10" s="12">
+        <v>50</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="12">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="4">
-        <v>50</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B11" s="12">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="12">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="12">
+        <v>50</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="12">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B13" s="12">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="12">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="12">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="E14" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="12">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B15" s="12">
+        <v>50</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="12">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B16" s="12">
+        <v>50</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="12">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B17" s="12">
+        <v>50</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="12">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3054,7 +3361,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="5">
         <v>50</v>
@@ -3062,7 +3369,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5">
         <v>50</v>
@@ -3070,7 +3377,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5">
         <v>50</v>
@@ -3078,7 +3385,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5">
         <v>50</v>
@@ -3086,7 +3393,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5">
         <v>50</v>
@@ -3094,7 +3401,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="5">
         <v>50</v>
@@ -3102,7 +3409,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="5">
         <v>50</v>
@@ -3146,31 +3453,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="14">
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="13">
         <v>500</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="13">
         <v>500</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K4" s="13">
         <v>50</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N4" s="13">
         <v>50</v>
@@ -3178,31 +3485,31 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="14">
         <v>50</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="13">
         <v>500</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="13">
         <v>500</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K5" s="13">
         <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5" s="13">
         <v>50</v>
@@ -3210,31 +3517,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="14">
         <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="13">
         <v>500</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" s="13">
         <v>500</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K6" s="13">
         <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N6" s="13">
         <v>50</v>
@@ -3242,31 +3549,31 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="14">
         <v>50</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="13">
         <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="13">
         <v>500</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K7" s="13">
         <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N7" s="13">
         <v>50</v>
@@ -3274,25 +3581,25 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="14">
         <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="13">
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="13">
         <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N8" s="13">
         <v>50</v>
@@ -3300,25 +3607,25 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="14">
         <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="13">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="13">
-        <v>50</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="H9" s="13">
         <v>50</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N9" s="13">
         <v>50</v>
@@ -3326,25 +3633,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="14">
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="13">
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="13">
         <v>50</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N10" s="13">
         <v>50</v>
@@ -3352,25 +3659,25 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="14">
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" s="13">
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="13">
         <v>50</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N11" s="13">
         <v>50</v>
@@ -3378,19 +3685,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="14">
         <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="13">
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="13">
         <v>50</v>
@@ -3398,19 +3705,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="14">
         <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="13">
         <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="13">
         <v>50</v>
@@ -3418,19 +3725,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="14">
         <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="13">
         <v>50</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="13">
         <v>50</v>
@@ -3438,19 +3745,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="14">
         <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="13">
         <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H15" s="13">
         <v>50</v>
@@ -3458,19 +3765,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="14">
         <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="13">
         <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H16" s="13">
         <v>50</v>
@@ -3478,19 +3785,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="14">
         <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="13">
         <v>50</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H17" s="13">
         <v>50</v>
@@ -3498,19 +3805,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="14">
         <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="13">
         <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H18" s="13">
         <v>50</v>
@@ -3518,19 +3825,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="14">
         <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="13">
         <v>50</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H19" s="13">
         <v>50</v>
@@ -3538,19 +3845,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="14">
         <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="13">
         <v>50</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H20" s="13">
         <v>50</v>
@@ -3558,19 +3865,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="14">
         <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21" s="13">
         <v>50</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H21" s="13">
         <v>50</v>
@@ -3578,19 +3885,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="14">
         <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E22" s="13">
         <v>50</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H22" s="13">
         <v>50</v>
@@ -3598,19 +3905,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="14">
         <v>50</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" s="13">
         <v>50</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H23" s="13">
         <v>50</v>
@@ -3618,19 +3925,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="14">
         <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" s="13">
         <v>50</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="13">
         <v>50</v>
@@ -3638,19 +3945,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="14">
         <v>50</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="13">
         <v>50</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H25" s="13">
         <v>50</v>
@@ -3658,19 +3965,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="14">
         <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" s="13">
         <v>50</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H26" s="13">
         <v>50</v>
@@ -3678,19 +3985,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="14">
         <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E27" s="13">
         <v>50</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H27" s="13">
         <v>50</v>
@@ -3698,19 +4005,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="14">
         <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E28" s="13">
         <v>50</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H28" s="13">
         <v>50</v>
@@ -3718,19 +4025,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="14">
         <v>50</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="13">
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H29" s="13">
         <v>50</v>
@@ -3738,19 +4045,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="14">
         <v>50</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="13">
         <v>50</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H30" s="13">
         <v>50</v>
@@ -3758,13 +4065,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="14">
         <v>50</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H31" s="13">
         <v>50</v>
@@ -3772,13 +4079,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="14">
         <v>50</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H32" s="13">
         <v>50</v>
@@ -3786,13 +4093,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="14">
         <v>50</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H33" s="13">
         <v>50</v>
@@ -3800,7 +4107,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" s="14">
         <v>50</v>
@@ -3808,7 +4115,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B35" s="14">
         <v>50</v>
@@ -3816,7 +4123,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="14">
         <v>50</v>
@@ -3824,7 +4131,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="14">
         <v>50</v>
@@ -3832,7 +4139,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="14">
         <v>50</v>
@@ -3840,7 +4147,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="14">
         <v>50</v>
@@ -3848,7 +4155,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" s="14">
         <v>50</v>
@@ -3856,7 +4163,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="14">
         <v>50</v>
@@ -3864,7 +4171,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" s="14">
         <v>50</v>
@@ -3872,7 +4179,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="14">
         <v>50</v>
@@ -3880,7 +4187,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" s="14">
         <v>50</v>
@@ -3888,7 +4195,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B45" s="14">
         <v>50</v>
@@ -3896,7 +4203,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" s="14">
         <v>50</v>
@@ -3904,7 +4211,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="14">
         <v>50</v>
@@ -3912,7 +4219,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="14">
         <v>50</v>
@@ -3920,7 +4227,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" s="14">
         <v>50</v>
@@ -3928,7 +4235,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" s="14">
         <v>50</v>
@@ -3936,7 +4243,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51" s="14">
         <v>50</v>
@@ -3944,7 +4251,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B52" s="14">
         <v>50</v>
@@ -3952,7 +4259,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53" s="14">
         <v>50</v>
@@ -3960,7 +4267,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B54" s="14">
         <v>50</v>
@@ -3968,7 +4275,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="14">
         <v>50</v>
@@ -3976,7 +4283,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" s="14">
         <v>50</v>
@@ -3984,7 +4291,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B57" s="14">
         <v>50</v>
@@ -3992,7 +4299,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" s="14">
         <v>50</v>
@@ -4000,7 +4307,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59" s="14">
         <v>50</v>
@@ -4008,7 +4315,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B60" s="14">
         <v>50</v>
@@ -4016,7 +4323,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B61" s="14">
         <v>50</v>
@@ -4024,7 +4331,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62" s="14">
         <v>50</v>
@@ -4032,7 +4339,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B63" s="14">
         <v>50</v>
@@ -4040,7 +4347,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B64" s="14">
         <v>50</v>
@@ -4085,25 +4392,25 @@
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="5">
         <v>500</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" s="5">
         <v>50</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K3" s="5">
         <v>50</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N3" s="5">
         <v>50</v>
@@ -4113,25 +4420,25 @@
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="D4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="5">
         <v>500</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H4" s="5">
         <v>50</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K4" s="5">
         <v>50</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N4" s="5">
         <v>50</v>
@@ -4139,25 +4446,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="5">
         <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H5" s="5">
         <v>50</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K5" s="5">
         <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N5" s="5">
         <v>50</v>
@@ -4165,31 +4472,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="12">
         <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="5">
         <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H6" s="5">
         <v>50</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K6" s="5">
         <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N6" s="5">
         <v>50</v>
@@ -4197,31 +4504,31 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="12">
         <v>50</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H7" s="5">
         <v>50</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K7" s="5">
         <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N7" s="5">
         <v>50</v>
@@ -4229,25 +4536,25 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="12">
         <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H8" s="5">
         <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K8" s="5">
         <v>50</v>
@@ -4255,25 +4562,25 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="12">
         <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" s="5">
         <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H9" s="5">
         <v>50</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K9" s="5">
         <v>50</v>
@@ -4281,19 +4588,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="5">
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" s="5">
         <v>50</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K10" s="5">
         <v>50</v>
@@ -4301,19 +4608,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H11" s="5">
         <v>50</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K11" s="5">
         <v>50</v>
@@ -4321,19 +4628,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H12" s="5">
         <v>50</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K12" s="5">
         <v>50</v>
@@ -4341,19 +4648,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E13" s="5">
         <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" s="5">
         <v>50</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K13" s="5">
         <v>50</v>
@@ -4361,19 +4668,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E14" s="5">
         <v>50</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H14" s="5">
         <v>50</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="5">
         <v>50</v>
@@ -4381,19 +4688,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H15" s="5">
         <v>50</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K15" s="5">
         <v>50</v>
@@ -4401,19 +4708,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H16" s="5">
         <v>50</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K16" s="5">
         <v>50</v>
@@ -4421,13 +4728,13 @@
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="5">
         <v>50</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H17" s="5">
         <v>50</v>
@@ -4435,13 +4742,13 @@
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H18" s="5">
         <v>50</v>
@@ -4449,13 +4756,13 @@
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E19" s="5">
         <v>50</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H19" s="5">
         <v>50</v>
@@ -4463,13 +4770,13 @@
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E20" s="5">
         <v>50</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H20" s="5">
         <v>50</v>
@@ -4477,13 +4784,13 @@
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E21" s="5">
         <v>50</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H21" s="5">
         <v>50</v>
@@ -4491,13 +4798,13 @@
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E22" s="5">
         <v>50</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H22" s="5">
         <v>50</v>
@@ -4505,13 +4812,13 @@
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E23" s="5">
         <v>50</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H23" s="5">
         <v>50</v>
@@ -4519,13 +4826,13 @@
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E24" s="5">
         <v>50</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H24" s="5">
         <v>50</v>
@@ -4533,13 +4840,13 @@
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E25" s="5">
         <v>50</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H25" s="5">
         <v>50</v>
@@ -4547,13 +4854,13 @@
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" s="5">
         <v>50</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H26" s="5">
         <v>50</v>
@@ -4561,13 +4868,13 @@
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E27" s="5">
         <v>50</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H27" s="5">
         <v>50</v>
@@ -4575,13 +4882,13 @@
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E28" s="5">
         <v>50</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H28" s="5">
         <v>50</v>
@@ -4589,13 +4896,13 @@
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" s="5">
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H29" s="5">
         <v>50</v>
@@ -4603,13 +4910,13 @@
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E30" s="5">
         <v>50</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H30" s="5">
         <v>50</v>
@@ -4617,13 +4924,13 @@
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E31" s="5">
         <v>50</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H31" s="5">
         <v>50</v>

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="349">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -1069,7 +1069,7 @@
     <t>поваренная соль экстра - поваренная -</t>
   </si>
   <si>
-    <t>соль экстра - выварочная - поваренная - пищевая - мелкая в мешках  со склада в Кропивницком</t>
+    <t>Соль экстра - выварочная - поваренная - пищевая - мелкая в мешках  со склада в Кропивницком  | Атена</t>
   </si>
 </sst>
 </file>
@@ -3016,14 +3016,14 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="4" max="4" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="2" customWidth="1"/>
@@ -3047,7 +3047,9 @@
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>348</v>
+      </c>
       <c r="J2" s="18" t="s">
         <v>42</v>
       </c>

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Соль пищевая" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="387">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -1070,6 +1070,120 @@
   </si>
   <si>
     <t>Соль экстра - выварочная - поваренная - пищевая - мелкая в мешках  со склада в Кропивницком  | Атена</t>
+  </si>
+  <si>
+    <t>Соль кормовая - для животных - брикетированная со склада в Кропивницком от компании Атена</t>
+  </si>
+  <si>
+    <t>Блок соль лизунец,</t>
+  </si>
+  <si>
+    <t>брикет соли,</t>
+  </si>
+  <si>
+    <t>Брикет соли 10 кг,</t>
+  </si>
+  <si>
+    <t>Кормовая добавка для домашней птицы,</t>
+  </si>
+  <si>
+    <t>Кормовая добавка для животных,</t>
+  </si>
+  <si>
+    <t>Кормовая соль для овец и коз,</t>
+  </si>
+  <si>
+    <t>Кормовая соль для сельскохозяйственных животных,</t>
+  </si>
+  <si>
+    <t>Кормовая соль лизунцы,</t>
+  </si>
+  <si>
+    <t>Кормовая соль животного,</t>
+  </si>
+  <si>
+    <t>лизунець,</t>
+  </si>
+  <si>
+    <t>Лизунец соль для овец,</t>
+  </si>
+  <si>
+    <t>Лизунец соленый,</t>
+  </si>
+  <si>
+    <t>Лизунец,</t>
+  </si>
+  <si>
+    <t>Соль 5 кг,</t>
+  </si>
+  <si>
+    <t>Соль брикет 10 кг,</t>
+  </si>
+  <si>
+    <t>Соль брикет Румыния,</t>
+  </si>
+  <si>
+    <t>Соль брикетированная,</t>
+  </si>
+  <si>
+    <t>Соль брикетированная в Украине,</t>
+  </si>
+  <si>
+    <t>Соль в брикетах,</t>
+  </si>
+  <si>
+    <t>Соль в брикетах кормовая лизунец,</t>
+  </si>
+  <si>
+    <t>Соль для врх,</t>
+  </si>
+  <si>
+    <t>Соль для диких животных,</t>
+  </si>
+  <si>
+    <t>Соль для коз,</t>
+  </si>
+  <si>
+    <t>Соль для коров,</t>
+  </si>
+  <si>
+    <t>Соль для овец,</t>
+  </si>
+  <si>
+    <t>Соль для животных,</t>
+  </si>
+  <si>
+    <t>Соль кормовая брикет,</t>
+  </si>
+  <si>
+    <t>Соль кормовая брикет для коров,</t>
+  </si>
+  <si>
+    <t>Соль кормовая для коз лошадей,</t>
+  </si>
+  <si>
+    <t>Соль лизун,</t>
+  </si>
+  <si>
+    <t>соль лизунец,</t>
+  </si>
+  <si>
+    <t>Соль лизунец для животных,</t>
+  </si>
+  <si>
+    <t>Соль Румыния,</t>
+  </si>
+  <si>
+    <t>Соль турция,</t>
+  </si>
+  <si>
+    <t>Соль в брикетах для коз,</t>
+  </si>
+  <si>
+    <t>Соль-лизунец для животных,</t>
+  </si>
+  <si>
+    <t>Соли-лизунцы,</t>
   </si>
 </sst>
 </file>
@@ -1677,14 +1791,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% – Акцентування1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2027,10 +2141,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
@@ -2039,8 +2153,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
@@ -2052,8 +2166,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2444,7 @@
       <c r="H15" s="20">
         <v>50</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2364,7 +2478,7 @@
       <c r="B17" s="10">
         <v>50</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="10">
@@ -2669,7 +2783,7 @@
       <c r="H30" s="20">
         <v>50</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="23" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2740,7 +2854,7 @@
       <c r="B34" s="10">
         <v>50</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>346</v>
       </c>
       <c r="G34" s="19" t="s">
@@ -3015,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,10 +3144,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
@@ -3042,24 +3156,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="J3" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -3068,13 +3178,13 @@
       <c r="B4" s="12">
         <v>50</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="4">
         <v>500</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="2">
@@ -3094,7 +3204,7 @@
       <c r="E5" s="4">
         <v>50</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="2">
@@ -3108,13 +3218,13 @@
       <c r="B6" s="12">
         <v>50</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>347</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="2">
@@ -3134,7 +3244,7 @@
       <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="2">
@@ -3148,13 +3258,13 @@
       <c r="B8" s="12">
         <v>50</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="2">
@@ -3168,13 +3278,13 @@
       <c r="B9" s="12">
         <v>50</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="4">
         <v>50</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H9" s="2">
@@ -3188,13 +3298,13 @@
       <c r="B10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>101</v>
       </c>
       <c r="E10" s="4">
         <v>50</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H10" s="2">
@@ -3222,7 +3332,7 @@
       <c r="B12" s="12">
         <v>50</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="4">
@@ -3264,7 +3374,7 @@
       <c r="B15" s="12">
         <v>50</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="4">
@@ -3278,7 +3388,7 @@
       <c r="B16" s="12">
         <v>50</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>84</v>
       </c>
       <c r="E16" s="4">
@@ -3292,7 +3402,7 @@
       <c r="B17" s="12">
         <v>50</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="4">
@@ -3350,75 +3460,311 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="E4" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="E6" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="E7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="5">
-        <v>50</v>
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="23" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Соль пищевая" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="396">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -1184,6 +1184,33 @@
   </si>
   <si>
     <t>Соли-лизунцы,</t>
+  </si>
+  <si>
+    <t>PROM.UA</t>
+  </si>
+  <si>
+    <t>Мелкая соль для консервации</t>
+  </si>
+  <si>
+    <t>соль не йодована</t>
+  </si>
+  <si>
+    <t>Сіль харчова 5 кг</t>
+  </si>
+  <si>
+    <t>Сіль харчова 1.5 кг</t>
+  </si>
+  <si>
+    <t>Сіль для копчення</t>
+  </si>
+  <si>
+    <t>Сіль кам'яна</t>
+  </si>
+  <si>
+    <t>Сіль кухонна</t>
+  </si>
+  <si>
+    <t>Сіль екстра</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1432,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1585,6 +1612,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1746,7 +1779,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1799,6 +1832,7 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% – Акцентування1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2122,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,9 +2888,6 @@
       <c r="B34" s="10">
         <v>50</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>346</v>
-      </c>
       <c r="G34" s="19" t="s">
         <v>69</v>
       </c>
@@ -2871,6 +2902,9 @@
       <c r="B35" s="10">
         <v>50</v>
       </c>
+      <c r="D35" s="26" t="s">
+        <v>387</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>70</v>
       </c>
@@ -2899,6 +2933,9 @@
       <c r="B37" s="10">
         <v>50</v>
       </c>
+      <c r="D37" s="23" t="s">
+        <v>346</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>76</v>
       </c>
@@ -2913,6 +2950,9 @@
       <c r="B38" s="10">
         <v>50</v>
       </c>
+      <c r="D38" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>77</v>
       </c>
@@ -2927,6 +2967,9 @@
       <c r="B39" s="10">
         <v>50</v>
       </c>
+      <c r="D39" t="s">
+        <v>389</v>
+      </c>
       <c r="G39" s="19" t="s">
         <v>78</v>
       </c>
@@ -2938,6 +2981,9 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>82</v>
       </c>
@@ -2949,6 +2995,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2960,6 +3009,9 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>392</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>103</v>
       </c>
@@ -2971,6 +3023,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="G43" s="3" t="s">
         <v>79</v>
       </c>
@@ -2982,6 +3037,9 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>394</v>
+      </c>
       <c r="J44" s="19" t="s">
         <v>22</v>
       </c>
@@ -3129,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,13 +3479,22 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
+      <c r="D23" s="5" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -3462,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Соль пищевая" sheetId="2" r:id="rId1"/>
@@ -2156,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="402">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -1211,6 +1211,24 @@
   </si>
   <si>
     <t>Сіль екстра</t>
+  </si>
+  <si>
+    <t>соль не йодированная</t>
+  </si>
+  <si>
+    <t>морская соль не йодированная</t>
+  </si>
+  <si>
+    <t>не йодированная соль</t>
+  </si>
+  <si>
+    <t>соль каменная не йодированная</t>
+  </si>
+  <si>
+    <t>соль крупная не йодированная</t>
+  </si>
+  <si>
+    <t>соль не йодированная купить</t>
   </si>
 </sst>
 </file>
@@ -2156,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,12 +2823,7 @@
       <c r="B30" s="10">
         <v>50</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="4">
-        <v>50</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="G30" s="19" t="s">
         <v>63</v>
       </c>
@@ -2828,10 +2841,10 @@
       <c r="B31" s="10">
         <v>50</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="5">
         <v>50</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2851,10 +2864,10 @@
       <c r="B32" s="10">
         <v>50</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" s="5">
         <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2874,6 +2887,12 @@
       <c r="B33" s="10">
         <v>50</v>
       </c>
+      <c r="D33" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" s="5">
+        <v>50</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>68</v>
       </c>
@@ -2888,6 +2907,12 @@
       <c r="B34" s="10">
         <v>50</v>
       </c>
+      <c r="D34" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E34" s="5">
+        <v>50</v>
+      </c>
       <c r="G34" s="19" t="s">
         <v>69</v>
       </c>
@@ -2902,8 +2927,11 @@
       <c r="B35" s="10">
         <v>50</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>387</v>
+      <c r="D35" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E35" s="5">
+        <v>50</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>70</v>
@@ -2919,6 +2947,12 @@
       <c r="B36" s="10">
         <v>50</v>
       </c>
+      <c r="D36" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="5">
+        <v>50</v>
+      </c>
       <c r="G36" s="19" t="s">
         <v>75</v>
       </c>
@@ -2933,9 +2967,7 @@
       <c r="B37" s="10">
         <v>50</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>346</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="G37" s="1" t="s">
         <v>76</v>
       </c>
@@ -2950,8 +2982,11 @@
       <c r="B38" s="10">
         <v>50</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>388</v>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="4">
+        <v>50</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>77</v>
@@ -2967,8 +3002,11 @@
       <c r="B39" s="10">
         <v>50</v>
       </c>
-      <c r="D39" t="s">
-        <v>389</v>
+      <c r="D39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="4">
+        <v>50</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>78</v>
@@ -2981,8 +3019,11 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="5" t="s">
-        <v>390</v>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="4">
+        <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>82</v>
@@ -2995,9 +3036,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="5" t="s">
-        <v>391</v>
-      </c>
+      <c r="D41" s="5"/>
       <c r="G41" s="1" t="s">
         <v>83</v>
       </c>
@@ -3009,9 +3048,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>392</v>
-      </c>
+      <c r="D42" s="5"/>
       <c r="G42" s="1" t="s">
         <v>103</v>
       </c>
@@ -3023,9 +3060,6 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>79</v>
       </c>
@@ -3037,8 +3071,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>394</v>
+      <c r="D44" s="26" t="s">
+        <v>387</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>22</v>
@@ -3050,96 +3084,120 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="23" t="s">
+        <v>346</v>
+      </c>
       <c r="J46" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="J47" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>389</v>
+      </c>
       <c r="J48" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="J49" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="J50" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>392</v>
+      </c>
       <c r="J51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="J52" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>394</v>
+      </c>
       <c r="J53" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J54" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J55" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J56" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J57" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J58" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J59" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J60" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J61" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J62" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J63" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J64" s="1" t="s">
         <v>76</v>
       </c>
@@ -3179,7 +3237,7 @@
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -2175,7 +2175,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Соль пищевая" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="433">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -1229,6 +1229,99 @@
   </si>
   <si>
     <t>соль не йодированная купить</t>
+  </si>
+  <si>
+    <t>соль кормовая,</t>
+  </si>
+  <si>
+    <t>кормовая соль,</t>
+  </si>
+  <si>
+    <t>кормовая соль для животных,</t>
+  </si>
+  <si>
+    <t>соль брикетированная для животноводства,</t>
+  </si>
+  <si>
+    <t>соль кормовая для животноводства,</t>
+  </si>
+  <si>
+    <t>соль кормовая цена,</t>
+  </si>
+  <si>
+    <t>Брикеты соли 10 кг.</t>
+  </si>
+  <si>
+    <t>лизунец,</t>
+  </si>
+  <si>
+    <t>Соль 5 кг</t>
+  </si>
+  <si>
+    <t>Соль брикет 10 кг.</t>
+  </si>
+  <si>
+    <t>Соль брикет.</t>
+  </si>
+  <si>
+    <t>Соль брикетированная в Украине.</t>
+  </si>
+  <si>
+    <t>Соль в брикетах</t>
+  </si>
+  <si>
+    <t>Соль кормовая.</t>
+  </si>
+  <si>
+    <t>Соль Турция,</t>
+  </si>
+  <si>
+    <t>Брикет соли 10 кг.</t>
+  </si>
+  <si>
+    <t>Соль в брикетах кормовая лизунец</t>
+  </si>
+  <si>
+    <t>Ciech</t>
+  </si>
+  <si>
+    <t>Ciech соль</t>
+  </si>
+  <si>
+    <t>Высококачественная таблетированная соль</t>
+  </si>
+  <si>
+    <t>Высококачественная таблетированная соль mutlucan 25 кг</t>
+  </si>
+  <si>
+    <t>Водоочистка</t>
+  </si>
+  <si>
+    <t>Соль для очистки воды в мешках таблетированная</t>
+  </si>
+  <si>
+    <t>соль для смягчения воды</t>
+  </si>
+  <si>
+    <t>Соль таблетированная для смягчения воды</t>
+  </si>
+  <si>
+    <t>Соль таблетированная экстра 25 кг</t>
+  </si>
+  <si>
+    <t>Соль таблетированный мешок 25 кг</t>
+  </si>
+  <si>
+    <t>Соль таблетированная очищенная 25 кг</t>
+  </si>
+  <si>
+    <t>Соль в мешках для очистки воды</t>
+  </si>
+  <si>
+    <t>Таблетированная соль для очистки бассейна</t>
+  </si>
+  <si>
+    <t>Качественная таблетированная соль</t>
   </si>
 </sst>
 </file>
@@ -1847,10 +1940,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% – Акцентування1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2174,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2193,10 +2286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
@@ -2205,8 +2298,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
@@ -2218,8 +2311,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3164,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>387</v>
       </c>
       <c r="J44" s="19" t="s">
@@ -3260,10 +3353,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
@@ -3272,8 +3365,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
@@ -3283,8 +3376,8 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3538,7 +3631,7 @@
       <c r="B19" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3585,10 +3678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,35 +3690,39 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="100.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="24" t="s">
         <v>131</v>
       </c>
@@ -3633,7 +3730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="24" t="s">
         <v>132</v>
       </c>
@@ -3641,7 +3738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" s="24" t="s">
         <v>133</v>
       </c>
@@ -3649,7 +3746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="24" t="s">
         <v>134</v>
       </c>
@@ -3657,232 +3754,613 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="24" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="24" t="s">
         <v>137</v>
       </c>
       <c r="E10" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="23" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="23" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="23" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="23" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="23" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="23" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="23" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="23" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="23" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="23" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="23" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="23" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="23" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="23" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="23" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="23" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" s="23" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" s="23" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D35" s="23" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D36" s="23" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="23" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D38" s="23" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D39" s="23" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" s="23" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" s="23" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="23" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D43" s="23" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D44" s="23" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="23" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D46" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D47" s="23" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D48" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="23" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D51" s="23" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" s="23" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D53" s="23" t="s">
         <v>386</v>
       </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D65" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D66" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D67" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D68" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D74" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D78" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D81" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D82" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D84" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D85" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D86" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D87" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D88" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D89" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D90" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D91" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D94" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D95" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D97" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D99" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D101" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D102" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D105" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D106" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D107" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H113"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3895,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P86" sqref="P2:P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,17 +4392,26 @@
     <col min="10" max="10" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" customWidth="1"/>
     <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="14"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>145</v>
       </c>
@@ -3955,8 +4442,11 @@
       <c r="N4" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>146</v>
       </c>
@@ -3987,8 +4477,11 @@
       <c r="N5" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>150</v>
       </c>
@@ -4019,8 +4512,11 @@
       <c r="N6" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>151</v>
       </c>
@@ -4051,8 +4547,11 @@
       <c r="N7" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>152</v>
       </c>
@@ -4077,8 +4576,11 @@
       <c r="N8" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>153</v>
       </c>
@@ -4103,8 +4605,11 @@
       <c r="N9" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>154</v>
       </c>
@@ -4129,8 +4634,11 @@
       <c r="N10" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>155</v>
       </c>
@@ -4155,8 +4663,11 @@
       <c r="N11" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>156</v>
       </c>
@@ -4175,8 +4686,11 @@
       <c r="H12" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>157</v>
       </c>
@@ -4195,8 +4709,11 @@
       <c r="H13" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>158</v>
       </c>
@@ -4215,8 +4732,11 @@
       <c r="H14" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>159</v>
       </c>
@@ -4235,8 +4755,11 @@
       <c r="H15" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>160</v>
       </c>
@@ -4255,8 +4778,11 @@
       <c r="H16" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P16" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>161</v>
       </c>
@@ -4275,8 +4801,11 @@
       <c r="H17" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P17" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>162</v>
       </c>
@@ -4295,8 +4824,11 @@
       <c r="H18" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P18" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>163</v>
       </c>
@@ -4315,8 +4847,11 @@
       <c r="H19" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P19" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>167</v>
       </c>
@@ -4335,8 +4870,11 @@
       <c r="H20" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P20" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>169</v>
       </c>
@@ -4355,8 +4893,11 @@
       <c r="H21" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P21" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>171</v>
       </c>
@@ -4375,8 +4916,11 @@
       <c r="H22" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P22" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>174</v>
       </c>
@@ -4395,8 +4939,11 @@
       <c r="H23" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P23" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>177</v>
       </c>
@@ -4415,8 +4962,11 @@
       <c r="H24" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P24" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>178</v>
       </c>
@@ -4435,8 +4985,11 @@
       <c r="H25" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P25" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>181</v>
       </c>
@@ -4455,8 +5008,11 @@
       <c r="H26" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P26" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>188</v>
       </c>
@@ -4475,8 +5031,11 @@
       <c r="H27" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P27" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -4495,8 +5054,11 @@
       <c r="H28" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P28" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>195</v>
       </c>
@@ -4515,8 +5077,11 @@
       <c r="H29" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P29" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>196</v>
       </c>
@@ -4535,8 +5100,11 @@
       <c r="H30" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P30" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>197</v>
       </c>
@@ -4549,8 +5117,11 @@
       <c r="H31" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P31" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>202</v>
       </c>
@@ -4563,8 +5134,11 @@
       <c r="H32" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>203</v>
       </c>
@@ -4577,257 +5151,464 @@
       <c r="H33" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P33" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>207</v>
       </c>
       <c r="B34" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P34" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>208</v>
       </c>
       <c r="B35" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P35" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B36" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P36" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P37" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>212</v>
       </c>
       <c r="B38" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P38" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P39" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>214</v>
       </c>
       <c r="B40" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P40" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>225</v>
       </c>
       <c r="B41" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P41" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>226</v>
       </c>
       <c r="B42" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P42" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>227</v>
       </c>
       <c r="B43" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P43" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>228</v>
       </c>
       <c r="B44" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P44" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>230</v>
       </c>
       <c r="B45" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P45" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B46" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P46" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>232</v>
       </c>
       <c r="B47" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P47" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>233</v>
       </c>
       <c r="B48" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P48" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>236</v>
       </c>
       <c r="B49" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P49" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>242</v>
       </c>
       <c r="B50" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P50" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>243</v>
       </c>
       <c r="B51" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P51" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>244</v>
       </c>
       <c r="B52" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P52" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>245</v>
       </c>
       <c r="B53" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P53" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>247</v>
       </c>
       <c r="B54" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P54" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>248</v>
       </c>
       <c r="B55" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P55" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>249</v>
       </c>
       <c r="B56" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P56" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>253</v>
       </c>
       <c r="B57" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P57" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>255</v>
       </c>
       <c r="B58" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P58" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>256</v>
       </c>
       <c r="B59" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P59" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>257</v>
       </c>
       <c r="B60" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P60" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>261</v>
       </c>
       <c r="B61" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P61" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>262</v>
       </c>
       <c r="B62" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P62" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>263</v>
       </c>
       <c r="B63" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P63" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>264</v>
       </c>
       <c r="B64" s="14">
         <v>50</v>
       </c>
+      <c r="P64" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P65" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P66" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P67" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P68" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P69" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P70" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P71" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P72" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P80" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P81" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P82" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P84" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P86" t="s">
+        <v>432</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="520">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -1322,6 +1322,267 @@
   </si>
   <si>
     <t>Качественная таблетированная соль</t>
+  </si>
+  <si>
+    <t>Ciech,</t>
+  </si>
+  <si>
+    <t>таблетированная соль,</t>
+  </si>
+  <si>
+    <t>гранулированная соль,</t>
+  </si>
+  <si>
+    <t>доставка таблетированной соли,</t>
+  </si>
+  <si>
+    <t>соль в таблетках,</t>
+  </si>
+  <si>
+    <t>соль гранулированная,</t>
+  </si>
+  <si>
+    <t>соль пищевая таблетированная,</t>
+  </si>
+  <si>
+    <t>соль поваренная таблетированная,</t>
+  </si>
+  <si>
+    <t>соль таблетированная 10 кг,</t>
+  </si>
+  <si>
+    <t>соль таблетированная 25,</t>
+  </si>
+  <si>
+    <t>соль таблетированная 25 кг цена,</t>
+  </si>
+  <si>
+    <t>соль таблетированная в мешках по 25 кг,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для фильтров,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для фильтров 25 кг,</t>
+  </si>
+  <si>
+    <t>соль таблетированная мешок 25 кг,</t>
+  </si>
+  <si>
+    <t>соль таблетированная универсальная,</t>
+  </si>
+  <si>
+    <t>соль таблетированная универсальная 25 кг,</t>
+  </si>
+  <si>
+    <t>соль таблетированная цена,</t>
+  </si>
+  <si>
+    <t>соль техническая таблетированная,</t>
+  </si>
+  <si>
+    <t>соль техническая таблетированная цена,</t>
+  </si>
+  <si>
+    <t>таблетированная,</t>
+  </si>
+  <si>
+    <t>таблетированная соль 25 кг,</t>
+  </si>
+  <si>
+    <t>таблетированная соль в кропивницком,</t>
+  </si>
+  <si>
+    <t>таблетированная соль для пмм,</t>
+  </si>
+  <si>
+    <t>таблетированная соль с доставкой,</t>
+  </si>
+  <si>
+    <t>таблетированная соль цена,</t>
+  </si>
+  <si>
+    <t>соль для очистки воды,</t>
+  </si>
+  <si>
+    <t>соль для очистки воды 25 кг,</t>
+  </si>
+  <si>
+    <t>соль для фильтра,</t>
+  </si>
+  <si>
+    <t>соль для фильтров,</t>
+  </si>
+  <si>
+    <t>гранулированная соль для очистки воды,</t>
+  </si>
+  <si>
+    <t>соль в таблетках для водоподготовки,</t>
+  </si>
+  <si>
+    <t>соль в таблетках для очистки воды,</t>
+  </si>
+  <si>
+    <t>соль для водоочистки,</t>
+  </si>
+  <si>
+    <t>соль для водоочистки цена,</t>
+  </si>
+  <si>
+    <t>соль для водоподготовки,</t>
+  </si>
+  <si>
+    <t>соль для очистки воды в мешках,</t>
+  </si>
+  <si>
+    <t>соль для очистки воды в мешках цена,</t>
+  </si>
+  <si>
+    <t>соль для систем водоочистки,</t>
+  </si>
+  <si>
+    <t>соль для систем очистки воды,</t>
+  </si>
+  <si>
+    <t>соль для фильтра 25 кг,</t>
+  </si>
+  <si>
+    <t>соль для фильтра воды,</t>
+  </si>
+  <si>
+    <t>соль для фильтра таблетированная,</t>
+  </si>
+  <si>
+    <t>соль для фильтров воды,</t>
+  </si>
+  <si>
+    <t>соль для фильтров купить,</t>
+  </si>
+  <si>
+    <t>соль для фильтров таблетированная,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для водоочистки,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для водоочистки 25 кг,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для водоподготовки,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для котельной,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для очистки воды,</t>
+  </si>
+  <si>
+    <t>таблетированная соль для водоочистки,</t>
+  </si>
+  <si>
+    <t>таблетированная соль для водоподготовки,</t>
+  </si>
+  <si>
+    <t>таблетированная соль для очистки воды,</t>
+  </si>
+  <si>
+    <t>таблетированная соль для систем водоочистки,</t>
+  </si>
+  <si>
+    <t>таблетированная соль для фильтров,</t>
+  </si>
+  <si>
+    <t>соль для регенерации,</t>
+  </si>
+  <si>
+    <t>соль для регенерации ионообменных смол,</t>
+  </si>
+  <si>
+    <t>соль для регенерации фильтров,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для регенерации ионообменных смол,</t>
+  </si>
+  <si>
+    <t>соль для умягчения,</t>
+  </si>
+  <si>
+    <t>соль для умягчения воды,</t>
+  </si>
+  <si>
+    <t>соль для умягчения воды 25 кг,</t>
+  </si>
+  <si>
+    <t>соль для умягчения воды цена,</t>
+  </si>
+  <si>
+    <t>соль для умягчителя,</t>
+  </si>
+  <si>
+    <t>соль для умягчителя воды,</t>
+  </si>
+  <si>
+    <t>соль таблетированная для умягчения воды,</t>
+  </si>
+  <si>
+    <t>таблетированная соль для умягчения воды,</t>
+  </si>
+  <si>
+    <t>Ciech соль,</t>
+  </si>
+  <si>
+    <t>Высококачественная таблетированная соль,</t>
+  </si>
+  <si>
+    <t>Высококачественная таблетированная соль mutlucan 25 кг,</t>
+  </si>
+  <si>
+    <t>Водоочистка,</t>
+  </si>
+  <si>
+    <t>Соль для очистки воды в мешках таблетированная,</t>
+  </si>
+  <si>
+    <t>соль для смягчения воды,</t>
+  </si>
+  <si>
+    <t>соль экстра таблетированная,</t>
+  </si>
+  <si>
+    <t>Соль таблетированная для смягчения воды,</t>
+  </si>
+  <si>
+    <t>Соль таблетированная экстра 25 кг,</t>
+  </si>
+  <si>
+    <t>Соль таблетированный мешок 25 кг,</t>
+  </si>
+  <si>
+    <t>Соль таблетированная очищенная 25 кг,</t>
+  </si>
+  <si>
+    <t>Соль в мешках для очистки воды,</t>
+  </si>
+  <si>
+    <t>Таблетированная соль для очистки бассейна,</t>
+  </si>
+  <si>
+    <t>таблетированная соль экстра,</t>
+  </si>
+  <si>
+    <t>Качественная таблетированная соль,</t>
+  </si>
+  <si>
+    <t>Соль таблетированная 25 кг  для фильтров</t>
+  </si>
+  <si>
+    <t>Таблетированная соль для очистки воды 25 кг</t>
+  </si>
+  <si>
+    <t>Cоль для очистки воды 25 кг</t>
+  </si>
+  <si>
+    <t>Соль для фильтров водоочистки 25 кг</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +2151,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1943,6 +2204,12 @@
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2267,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,7 +3606,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,7 +3947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -4373,20 +4640,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P86" sqref="P2:P86"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.5703125" customWidth="1"/>
     <col min="10" max="10" width="41.85546875" bestFit="1" customWidth="1"/>
@@ -4395,23 +4662,46 @@
     <col min="16" max="16" width="58.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
-      <c r="P2" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="J3" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>145</v>
       </c>
@@ -4424,7 +4714,7 @@
       <c r="E4" s="13">
         <v>500</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="28" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="13">
@@ -4445,8 +4735,11 @@
       <c r="P4" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>146</v>
       </c>
@@ -4459,7 +4752,7 @@
       <c r="E5" s="13">
         <v>500</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="28" t="s">
         <v>139</v>
       </c>
       <c r="H5" s="13">
@@ -4480,8 +4773,11 @@
       <c r="P5" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>150</v>
       </c>
@@ -4494,7 +4790,7 @@
       <c r="E6" s="13">
         <v>500</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="28" t="s">
         <v>140</v>
       </c>
       <c r="H6" s="13">
@@ -4515,8 +4811,11 @@
       <c r="P6" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>151</v>
       </c>
@@ -4529,7 +4828,7 @@
       <c r="E7" s="13">
         <v>50</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="28" t="s">
         <v>141</v>
       </c>
       <c r="H7" s="13">
@@ -4550,8 +4849,11 @@
       <c r="P7" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>152</v>
       </c>
@@ -4564,7 +4866,7 @@
       <c r="E8" s="13">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="28" t="s">
         <v>148</v>
       </c>
       <c r="H8" s="13">
@@ -4579,8 +4881,11 @@
       <c r="P8" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>153</v>
       </c>
@@ -4593,7 +4898,7 @@
       <c r="E9" s="13">
         <v>50</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="28" t="s">
         <v>165</v>
       </c>
       <c r="H9" s="13">
@@ -4608,8 +4913,11 @@
       <c r="P9" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>154</v>
       </c>
@@ -4622,7 +4930,7 @@
       <c r="E10" s="13">
         <v>50</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="28" t="s">
         <v>166</v>
       </c>
       <c r="H10" s="13">
@@ -4637,8 +4945,11 @@
       <c r="P10" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>155</v>
       </c>
@@ -4651,7 +4962,7 @@
       <c r="E11" s="13">
         <v>50</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="28" t="s">
         <v>170</v>
       </c>
       <c r="H11" s="13">
@@ -4666,8 +4977,11 @@
       <c r="P11" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>156</v>
       </c>
@@ -4680,7 +4994,7 @@
       <c r="E12" s="13">
         <v>50</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="28" t="s">
         <v>172</v>
       </c>
       <c r="H12" s="13">
@@ -4689,8 +5003,11 @@
       <c r="P12" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>157</v>
       </c>
@@ -4703,7 +5020,7 @@
       <c r="E13" s="13">
         <v>50</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="28" t="s">
         <v>173</v>
       </c>
       <c r="H13" s="13">
@@ -4712,8 +5029,11 @@
       <c r="P13" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>158</v>
       </c>
@@ -4726,7 +5046,7 @@
       <c r="E14" s="13">
         <v>50</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="28" t="s">
         <v>175</v>
       </c>
       <c r="H14" s="13">
@@ -4735,8 +5055,11 @@
       <c r="P14" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>159</v>
       </c>
@@ -4749,7 +5072,7 @@
       <c r="E15" s="13">
         <v>50</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="28" t="s">
         <v>176</v>
       </c>
       <c r="H15" s="13">
@@ -4758,8 +5081,11 @@
       <c r="P15" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>160</v>
       </c>
@@ -4772,7 +5098,7 @@
       <c r="E16" s="13">
         <v>50</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="28" t="s">
         <v>183</v>
       </c>
       <c r="H16" s="13">
@@ -4781,8 +5107,11 @@
       <c r="P16" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>161</v>
       </c>
@@ -4795,7 +5124,7 @@
       <c r="E17" s="13">
         <v>50</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="28" t="s">
         <v>184</v>
       </c>
       <c r="H17" s="13">
@@ -4804,8 +5133,11 @@
       <c r="P17" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>162</v>
       </c>
@@ -4818,7 +5150,7 @@
       <c r="E18" s="13">
         <v>50</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="28" t="s">
         <v>193</v>
       </c>
       <c r="H18" s="13">
@@ -4827,8 +5159,11 @@
       <c r="P18" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>163</v>
       </c>
@@ -4841,7 +5176,7 @@
       <c r="E19" s="13">
         <v>50</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="28" t="s">
         <v>194</v>
       </c>
       <c r="H19" s="13">
@@ -4850,8 +5185,11 @@
       <c r="P19" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>167</v>
       </c>
@@ -4864,7 +5202,7 @@
       <c r="E20" s="13">
         <v>50</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="28" t="s">
         <v>198</v>
       </c>
       <c r="H20" s="13">
@@ -4873,8 +5211,11 @@
       <c r="P20" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>169</v>
       </c>
@@ -4887,7 +5228,7 @@
       <c r="E21" s="13">
         <v>50</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="28" t="s">
         <v>199</v>
       </c>
       <c r="H21" s="13">
@@ -4896,8 +5237,11 @@
       <c r="P21" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>171</v>
       </c>
@@ -4910,7 +5254,7 @@
       <c r="E22" s="13">
         <v>50</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="28" t="s">
         <v>200</v>
       </c>
       <c r="H22" s="13">
@@ -4919,8 +5263,11 @@
       <c r="P22" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>174</v>
       </c>
@@ -4933,7 +5280,7 @@
       <c r="E23" s="13">
         <v>50</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="28" t="s">
         <v>201</v>
       </c>
       <c r="H23" s="13">
@@ -4942,8 +5289,11 @@
       <c r="P23" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>177</v>
       </c>
@@ -4956,7 +5306,7 @@
       <c r="E24" s="13">
         <v>50</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="28" t="s">
         <v>216</v>
       </c>
       <c r="H24" s="13">
@@ -4965,8 +5315,11 @@
       <c r="P24" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>178</v>
       </c>
@@ -4979,7 +5332,7 @@
       <c r="E25" s="13">
         <v>50</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="28" t="s">
         <v>217</v>
       </c>
       <c r="H25" s="13">
@@ -4988,8 +5341,11 @@
       <c r="P25" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>181</v>
       </c>
@@ -5002,7 +5358,7 @@
       <c r="E26" s="13">
         <v>50</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="28" t="s">
         <v>218</v>
       </c>
       <c r="H26" s="13">
@@ -5011,8 +5367,11 @@
       <c r="P26" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>188</v>
       </c>
@@ -5025,7 +5384,7 @@
       <c r="E27" s="13">
         <v>50</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="28" t="s">
         <v>219</v>
       </c>
       <c r="H27" s="13">
@@ -5034,8 +5393,11 @@
       <c r="P27" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -5048,7 +5410,7 @@
       <c r="E28" s="13">
         <v>50</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="28" t="s">
         <v>220</v>
       </c>
       <c r="H28" s="13">
@@ -5057,8 +5419,11 @@
       <c r="P28" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>195</v>
       </c>
@@ -5071,7 +5436,7 @@
       <c r="E29" s="13">
         <v>50</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="28" t="s">
         <v>250</v>
       </c>
       <c r="H29" s="13">
@@ -5080,8 +5445,11 @@
       <c r="P29" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>196</v>
       </c>
@@ -5094,7 +5462,7 @@
       <c r="E30" s="13">
         <v>50</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="28" t="s">
         <v>251</v>
       </c>
       <c r="H30" s="13">
@@ -5103,15 +5471,18 @@
       <c r="P30" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B31" s="14">
         <v>50</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="28" t="s">
         <v>252</v>
       </c>
       <c r="H31" s="13">
@@ -5120,15 +5491,18 @@
       <c r="P31" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="14">
         <v>50</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="28" t="s">
         <v>258</v>
       </c>
       <c r="H32" s="13">
@@ -5137,15 +5511,18 @@
       <c r="P32" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="14">
         <v>50</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="28" t="s">
         <v>260</v>
       </c>
       <c r="H33" s="13">
@@ -5154,8 +5531,11 @@
       <c r="P33" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>207</v>
       </c>
@@ -5165,8 +5545,11 @@
       <c r="P34" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>208</v>
       </c>
@@ -5176,8 +5559,11 @@
       <c r="P35" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>209</v>
       </c>
@@ -5187,8 +5573,11 @@
       <c r="P36" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>211</v>
       </c>
@@ -5198,8 +5587,11 @@
       <c r="P37" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>212</v>
       </c>
@@ -5209,8 +5601,11 @@
       <c r="P38" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>213</v>
       </c>
@@ -5220,8 +5615,11 @@
       <c r="P39" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>214</v>
       </c>
@@ -5231,8 +5629,11 @@
       <c r="P40" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>225</v>
       </c>
@@ -5242,8 +5643,11 @@
       <c r="P41" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>226</v>
       </c>
@@ -5253,8 +5657,11 @@
       <c r="P42" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>227</v>
       </c>
@@ -5264,8 +5671,11 @@
       <c r="P43" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>228</v>
       </c>
@@ -5275,8 +5685,11 @@
       <c r="P44" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>230</v>
       </c>
@@ -5286,8 +5699,11 @@
       <c r="P45" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R45" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>231</v>
       </c>
@@ -5297,8 +5713,11 @@
       <c r="P46" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>232</v>
       </c>
@@ -5308,8 +5727,11 @@
       <c r="P47" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>233</v>
       </c>
@@ -5319,8 +5741,11 @@
       <c r="P48" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>236</v>
       </c>
@@ -5330,8 +5755,11 @@
       <c r="P49" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>242</v>
       </c>
@@ -5341,8 +5769,11 @@
       <c r="P50" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>243</v>
       </c>
@@ -5352,8 +5783,11 @@
       <c r="P51" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>244</v>
       </c>
@@ -5363,8 +5797,11 @@
       <c r="P52" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>245</v>
       </c>
@@ -5374,8 +5811,11 @@
       <c r="P53" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>247</v>
       </c>
@@ -5385,8 +5825,11 @@
       <c r="P54" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>248</v>
       </c>
@@ -5396,8 +5839,11 @@
       <c r="P55" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>249</v>
       </c>
@@ -5407,8 +5853,11 @@
       <c r="P56" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>253</v>
       </c>
@@ -5418,8 +5867,11 @@
       <c r="P57" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>255</v>
       </c>
@@ -5429,8 +5881,11 @@
       <c r="P58" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>256</v>
       </c>
@@ -5440,8 +5895,11 @@
       <c r="P59" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>257</v>
       </c>
@@ -5451,8 +5909,11 @@
       <c r="P60" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>261</v>
       </c>
@@ -5462,8 +5923,11 @@
       <c r="P61" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>262</v>
       </c>
@@ -5473,8 +5937,11 @@
       <c r="P62" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>263</v>
       </c>
@@ -5484,8 +5951,11 @@
       <c r="P63" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R63" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>264</v>
       </c>
@@ -5495,118 +5965,190 @@
       <c r="P64" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P65" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R65" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P66" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P67" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P68" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R68" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="69" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P69" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P70" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P71" s="5" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P72" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P73" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P74" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P75" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P76" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P77" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P78" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="79" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P79" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="80" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P80" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P81" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R81" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P82" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P83" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R83" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="84" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P84" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R84" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P85" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="R85" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P86" t="s">
         <v>432</v>
       </c>
+      <c r="R86" t="s">
+        <v>515</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Соль пищевая" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Соль таблетированная" sheetId="5" r:id="rId4"/>
     <sheet name="Соль техническая" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="564">
   <si>
     <t>соль пищевая</t>
   </si>
@@ -1583,6 +1583,138 @@
   </si>
   <si>
     <t>Соль для фильтров водоочистки 25 кг</t>
+  </si>
+  <si>
+    <t>Соль каменная техническая в мешках</t>
+  </si>
+  <si>
+    <t>Техническая  поваренная соль в мешках</t>
+  </si>
+  <si>
+    <t>соль техническая,</t>
+  </si>
+  <si>
+    <t>каменная соль техническая,</t>
+  </si>
+  <si>
+    <t>соль техническая в мешках,</t>
+  </si>
+  <si>
+    <t>тех соль,</t>
+  </si>
+  <si>
+    <t>техническая поваренная соль,</t>
+  </si>
+  <si>
+    <t>соль техническая для посыпки дорог,</t>
+  </si>
+  <si>
+    <t>соль для посыпки дорог,</t>
+  </si>
+  <si>
+    <t>галит для посыпки дорог,</t>
+  </si>
+  <si>
+    <t>галит минеральный,</t>
+  </si>
+  <si>
+    <t>галит техническая соль,</t>
+  </si>
+  <si>
+    <t>соль галит,</t>
+  </si>
+  <si>
+    <t>соль для посыпки льда,</t>
+  </si>
+  <si>
+    <t>соль для посыпки улиц,</t>
+  </si>
+  <si>
+    <t>соль дорожная,</t>
+  </si>
+  <si>
+    <t>соль техническая галит,</t>
+  </si>
+  <si>
+    <t>техническая соль для посыпки дорог,</t>
+  </si>
+  <si>
+    <t>промышленная соль,</t>
+  </si>
+  <si>
+    <t>Соль для посыпания дорог,</t>
+  </si>
+  <si>
+    <t>соль дорожная навал с доставкой,</t>
+  </si>
+  <si>
+    <t>техническая соль для дорог,</t>
+  </si>
+  <si>
+    <t>техническая соль для дорог в мешках,</t>
+  </si>
+  <si>
+    <t>соль техническая дорожная,</t>
+  </si>
+  <si>
+    <t>Соль для тротуаров,</t>
+  </si>
+  <si>
+    <t>соль для посыпания тротуаров,</t>
+  </si>
+  <si>
+    <t>Соль против льда,</t>
+  </si>
+  <si>
+    <t>Соль для посыпания льда,</t>
+  </si>
+  <si>
+    <t>соль промышленная,</t>
+  </si>
+  <si>
+    <t>Соль техническая 25 кг,</t>
+  </si>
+  <si>
+    <t>Соль техническая 3 помол,</t>
+  </si>
+  <si>
+    <t>Соль техническая в бегах,</t>
+  </si>
+  <si>
+    <t>Соль техническая для котельных,</t>
+  </si>
+  <si>
+    <t>Соль техническая за тонну,</t>
+  </si>
+  <si>
+    <t>Техническая соль в мешках,</t>
+  </si>
+  <si>
+    <t>соль навал с доставкой,</t>
+  </si>
+  <si>
+    <t>соль насыпью с доставкой,</t>
+  </si>
+  <si>
+    <t>соль техническая навал,</t>
+  </si>
+  <si>
+    <t>соль техническая навал с доставкой,</t>
+  </si>
+  <si>
+    <t>соль техническая галит 50 кг мешок,</t>
+  </si>
+  <si>
+    <t>соль галит для посыпки дорог,</t>
+  </si>
+  <si>
+    <t>галит для дорог,</t>
+  </si>
+  <si>
+    <t>галит соль,</t>
+  </si>
+  <si>
+    <t>Средство против льда,</t>
   </si>
 </sst>
 </file>
@@ -2202,14 +2334,14 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2553,10 +2685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
@@ -2565,8 +2697,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
@@ -2578,8 +2710,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
@@ -3620,10 +3752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
@@ -3632,8 +3764,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
@@ -3643,8 +3775,8 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3961,10 +4093,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
@@ -3974,8 +4106,8 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
@@ -3985,8 +4117,8 @@
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4642,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4653,7 +4785,7 @@
     <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="46" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.5703125" customWidth="1"/>
     <col min="10" max="10" width="41.85546875" bestFit="1" customWidth="1"/>
@@ -4663,30 +4795,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="16" t="s">
         <v>343</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="16" t="s">
         <v>344</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>519</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -4694,9 +4826,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="G3" s="26"/>
       <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
@@ -4714,7 +4846,7 @@
       <c r="E4" s="13">
         <v>500</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="13">
@@ -4752,7 +4884,7 @@
       <c r="E5" s="13">
         <v>500</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>139</v>
       </c>
       <c r="H5" s="13">
@@ -4790,7 +4922,7 @@
       <c r="E6" s="13">
         <v>500</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>140</v>
       </c>
       <c r="H6" s="13">
@@ -4828,7 +4960,7 @@
       <c r="E7" s="13">
         <v>50</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>141</v>
       </c>
       <c r="H7" s="13">
@@ -4866,7 +4998,7 @@
       <c r="E8" s="13">
         <v>50</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>148</v>
       </c>
       <c r="H8" s="13">
@@ -4898,7 +5030,7 @@
       <c r="E9" s="13">
         <v>50</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>165</v>
       </c>
       <c r="H9" s="13">
@@ -4930,7 +5062,7 @@
       <c r="E10" s="13">
         <v>50</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>166</v>
       </c>
       <c r="H10" s="13">
@@ -4962,7 +5094,7 @@
       <c r="E11" s="13">
         <v>50</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>170</v>
       </c>
       <c r="H11" s="13">
@@ -4994,7 +5126,7 @@
       <c r="E12" s="13">
         <v>50</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>172</v>
       </c>
       <c r="H12" s="13">
@@ -5020,7 +5152,7 @@
       <c r="E13" s="13">
         <v>50</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>173</v>
       </c>
       <c r="H13" s="13">
@@ -5046,7 +5178,7 @@
       <c r="E14" s="13">
         <v>50</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>175</v>
       </c>
       <c r="H14" s="13">
@@ -5072,7 +5204,7 @@
       <c r="E15" s="13">
         <v>50</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>176</v>
       </c>
       <c r="H15" s="13">
@@ -5098,7 +5230,7 @@
       <c r="E16" s="13">
         <v>50</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>183</v>
       </c>
       <c r="H16" s="13">
@@ -5124,7 +5256,7 @@
       <c r="E17" s="13">
         <v>50</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>184</v>
       </c>
       <c r="H17" s="13">
@@ -5150,7 +5282,7 @@
       <c r="E18" s="13">
         <v>50</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>193</v>
       </c>
       <c r="H18" s="13">
@@ -5176,7 +5308,7 @@
       <c r="E19" s="13">
         <v>50</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>194</v>
       </c>
       <c r="H19" s="13">
@@ -5202,7 +5334,7 @@
       <c r="E20" s="13">
         <v>50</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>198</v>
       </c>
       <c r="H20" s="13">
@@ -5228,7 +5360,7 @@
       <c r="E21" s="13">
         <v>50</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>199</v>
       </c>
       <c r="H21" s="13">
@@ -5254,7 +5386,7 @@
       <c r="E22" s="13">
         <v>50</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>200</v>
       </c>
       <c r="H22" s="13">
@@ -5280,7 +5412,7 @@
       <c r="E23" s="13">
         <v>50</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="27" t="s">
         <v>201</v>
       </c>
       <c r="H23" s="13">
@@ -5306,7 +5438,7 @@
       <c r="E24" s="13">
         <v>50</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="27" t="s">
         <v>216</v>
       </c>
       <c r="H24" s="13">
@@ -5332,7 +5464,7 @@
       <c r="E25" s="13">
         <v>50</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>217</v>
       </c>
       <c r="H25" s="13">
@@ -5358,7 +5490,7 @@
       <c r="E26" s="13">
         <v>50</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>218</v>
       </c>
       <c r="H26" s="13">
@@ -5384,7 +5516,7 @@
       <c r="E27" s="13">
         <v>50</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>219</v>
       </c>
       <c r="H27" s="13">
@@ -5410,7 +5542,7 @@
       <c r="E28" s="13">
         <v>50</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>220</v>
       </c>
       <c r="H28" s="13">
@@ -5436,7 +5568,7 @@
       <c r="E29" s="13">
         <v>50</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>250</v>
       </c>
       <c r="H29" s="13">
@@ -5462,7 +5594,7 @@
       <c r="E30" s="13">
         <v>50</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>251</v>
       </c>
       <c r="H30" s="13">
@@ -5482,7 +5614,7 @@
       <c r="B31" s="14">
         <v>50</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>252</v>
       </c>
       <c r="H31" s="13">
@@ -5502,7 +5634,7 @@
       <c r="B32" s="14">
         <v>50</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>258</v>
       </c>
       <c r="H32" s="13">
@@ -5522,7 +5654,7 @@
       <c r="B33" s="14">
         <v>50</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>260</v>
       </c>
       <c r="H33" s="13">
@@ -6156,17 +6288,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.7109375" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.7109375" customWidth="1"/>
@@ -6174,572 +6306,750 @@
     <col min="11" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="D3" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="5">
-        <v>500</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="5">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K3" s="5">
-        <v>50</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="N3" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="J2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="G3" s="26"/>
+      <c r="J3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="D4" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E4" s="5">
         <v>500</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="5">
+        <v>50</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="5">
+        <v>50</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N4" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="D5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5">
+        <v>500</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H4" s="5">
-        <v>50</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="H5" s="5">
+        <v>50</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K4" s="5">
-        <v>50</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="K5" s="5">
+        <v>50</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="N4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+      <c r="N5" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="5">
-        <v>50</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="5">
-        <v>50</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="H6" s="5">
+        <v>50</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="5">
-        <v>50</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="K6" s="5">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="N5" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="N6" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="12">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B7" s="12">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="5">
-        <v>50</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="5">
-        <v>50</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="H7" s="5">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="5">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="K7" s="5">
+        <v>50</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="N6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="N7" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="12">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B8" s="12">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="5">
-        <v>50</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="5">
-        <v>50</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="H8" s="5">
+        <v>50</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="K7" s="5">
-        <v>50</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="K8" s="5">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="N7" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="N8" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="12">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B9" s="12">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="5">
-        <v>50</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="5">
-        <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="H9" s="5">
+        <v>50</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K8" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="K9" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="12">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B10" s="12">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E9" s="5">
-        <v>50</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H9" s="5">
-        <v>50</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="H10" s="5">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K9" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="K10" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E10" s="5">
-        <v>50</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H10" s="5">
-        <v>50</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="H11" s="5">
+        <v>50</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+      <c r="K11" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="5">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="E12" s="5">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H11" s="5">
-        <v>50</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="H12" s="5">
+        <v>50</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="K11" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+      <c r="K12" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E12" s="5">
-        <v>50</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="E13" s="5">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="5">
-        <v>50</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="H13" s="5">
+        <v>50</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="K12" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
+      <c r="K13" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E13" s="5">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E14" s="5">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H13" s="5">
-        <v>50</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="H14" s="5">
+        <v>50</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="K13" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="K14" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="5">
-        <v>50</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E15" s="5">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="H14" s="5">
-        <v>50</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="H15" s="5">
+        <v>50</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K14" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+      <c r="K15" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="5">
-        <v>50</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="E16" s="5">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="H15" s="5">
-        <v>50</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="H16" s="5">
+        <v>50</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="K15" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="K16" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E16" s="5">
-        <v>50</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="E17" s="5">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="H16" s="5">
-        <v>50</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="H17" s="5">
+        <v>50</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="K16" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
+      <c r="K17" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E17" s="5">
-        <v>50</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="E18" s="5">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H17" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+      <c r="H18" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E18" s="5">
-        <v>50</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="E19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H18" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+      <c r="H19" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E19" s="5">
-        <v>50</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="E20" s="5">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H19" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
+      <c r="H20" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E20" s="5">
-        <v>50</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="E21" s="5">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="H20" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
+      <c r="H21" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="5">
-        <v>50</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="E22" s="5">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="5" t="s">
+      <c r="H22" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E22" s="5">
-        <v>50</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="E23" s="5">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="H22" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="5" t="s">
+      <c r="H23" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="5">
-        <v>50</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="E24" s="5">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H23" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
+      <c r="H24" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E24" s="5">
-        <v>50</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="E25" s="5">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H24" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
+      <c r="H25" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="5">
-        <v>50</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="E26" s="5">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="H25" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
+      <c r="H26" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E26" s="5">
-        <v>50</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="E27" s="5">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="H26" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
+      <c r="H27" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E27" s="5">
-        <v>50</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="E28" s="5">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="5" t="s">
+      <c r="H28" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E28" s="5">
-        <v>50</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="E29" s="5">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H28" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="5" t="s">
+      <c r="H29" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E29" s="5">
-        <v>50</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="E30" s="5">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="H29" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="5" t="s">
+      <c r="H30" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E30" s="5">
-        <v>50</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="E31" s="5">
+        <v>50</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="H30" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="5" t="s">
+      <c r="H31" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E31" s="5">
-        <v>50</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="E32" s="5">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H31" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="H32" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="Q33" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q34" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q41" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q43" s="13" t="s">
+        <v>563</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:B132">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/соль.xlsx
+++ b/Фриланс/Projects/atena.com.ua/соль.xlsx
@@ -6291,7 +6291,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
